--- a/XX_Url/Southernpipe.xlsx
+++ b/XX_Url/Southernpipe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{F6BF0811-ED3E-4BD0-B80C-FD22EC03E4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB82BAA0-C940-4F98-AA1D-3D5401620F0B}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{F6BF0811-ED3E-4BD0-B80C-FD22EC03E4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E46CE358-2C7D-4243-B640-86F8A5918A8D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="2" r:id="rId1"/>
@@ -1030,9 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1047,7 +1045,7 @@
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="214" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
